--- a/Escritorio/Data/Compras.xlsx
+++ b/Escritorio/Data/Compras.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,44 +466,23 @@
           <t>D0001</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>37174</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>25/11/2021 22:55</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S0001</t>
+          <t>L1001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mercado Mayoritario</t>
+          <t>Primax Gas Peru</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>D002</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>44524.10486111111</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S0001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mercado Mayoritario</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
